--- a/Daan logboek.xlsx
+++ b/Daan logboek.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7a575cd3af734844/Documenten/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7a575cd3af734844/Bureaublad/wk 12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5B1702C-8CBE-4EDB-9542-D877C8874A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{E5B1702C-8CBE-4EDB-9542-D877C8874A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCE424FD-F578-434A-B778-E651207405E7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>datum</t>
   </si>
@@ -63,12 +63,27 @@
   </si>
   <si>
     <t>beweging van spelers coderen</t>
+  </si>
+  <si>
+    <t>playerscore bijhouden</t>
+  </si>
+  <si>
+    <t>finishline tekenen en de playerscore daarop baseren</t>
+  </si>
+  <si>
+    <t>spelers kregen te veel punten</t>
+  </si>
+  <si>
+    <t>nog niet gevonden</t>
+  </si>
+  <si>
+    <t>oplossing op probleem van gisteren: finishline korter maken</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -414,20 +429,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.44140625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="34.5546875" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" customWidth="1"/>
     <col min="4" max="4" width="35.88671875" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="53.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -479,6 +494,37 @@
       <c r="A4" s="1">
         <v>45258</v>
       </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45259</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Daan logboek.xlsx
+++ b/Daan logboek.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7a575cd3af734844/Bureaublad/wk 12/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7a575cd3af734844/Bureaublad/wk 12/Challenge_Week-3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{E5B1702C-8CBE-4EDB-9542-D877C8874A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCE424FD-F578-434A-B778-E651207405E7}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{E5B1702C-8CBE-4EDB-9542-D877C8874A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{632476F0-6E30-4ABE-84AB-61C3C3CF91D9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>datum</t>
   </si>
@@ -78,6 +78,18 @@
   </si>
   <si>
     <t>oplossing op probleem van gisteren: finishline korter maken</t>
+  </si>
+  <si>
+    <t>bugs fixen en achtergrond tekenen en zoeken</t>
+  </si>
+  <si>
+    <t>proberen het scherm te delen, zodat je de twee auto's appart kunt besturen</t>
+  </si>
+  <si>
+    <t>het scherm delen lukte nog niet en het scherm werd zwart</t>
+  </si>
+  <si>
+    <t>is er nog niet</t>
   </si>
 </sst>
 </file>
@@ -430,18 +442,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.44140625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="46.33203125" customWidth="1"/>
-    <col min="4" max="4" width="35.88671875" customWidth="1"/>
+    <col min="3" max="3" width="62.33203125" customWidth="1"/>
+    <col min="4" max="4" width="47.5546875" customWidth="1"/>
     <col min="5" max="5" width="53.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -522,8 +534,41 @@
       <c r="A6" s="1">
         <v>45259</v>
       </c>
+      <c r="B6">
+        <v>3.5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
       <c r="E6" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B7">
+        <v>2.5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45260</v>
       </c>
     </row>
   </sheetData>

--- a/Daan logboek.xlsx
+++ b/Daan logboek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7a575cd3af734844/Bureaublad/wk 12/Challenge_Week-3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{E5B1702C-8CBE-4EDB-9542-D877C8874A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{632476F0-6E30-4ABE-84AB-61C3C3CF91D9}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{E5B1702C-8CBE-4EDB-9542-D877C8874A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45DF977E-9477-4697-B68F-95D343385433}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>datum</t>
   </si>
@@ -77,9 +77,6 @@
     <t>nog niet gevonden</t>
   </si>
   <si>
-    <t>oplossing op probleem van gisteren: finishline korter maken</t>
-  </si>
-  <si>
     <t>bugs fixen en achtergrond tekenen en zoeken</t>
   </si>
   <si>
@@ -90,6 +87,21 @@
   </si>
   <si>
     <t>is er nog niet</t>
+  </si>
+  <si>
+    <t>nog wat kleine dingen toevoegen aan de code, zoals meer keybinds</t>
+  </si>
+  <si>
+    <t>we hebben het scherm delen laten zitten</t>
+  </si>
+  <si>
+    <t>geprobeerd de kleur van de auto te laten veranderen in het begin van het spel</t>
+  </si>
+  <si>
+    <t>oplossing op probleem van gisteren: finishline dunner maken</t>
+  </si>
+  <si>
+    <t>de auto veranderd nu altijd of het scherm is zwart</t>
   </si>
 </sst>
 </file>
@@ -442,17 +454,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.44140625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="62.33203125" customWidth="1"/>
+    <col min="3" max="3" width="64.44140625" customWidth="1"/>
     <col min="4" max="4" width="47.5546875" customWidth="1"/>
     <col min="5" max="5" width="53.33203125" customWidth="1"/>
   </cols>
@@ -538,10 +550,10 @@
         <v>3.5</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -552,23 +564,49 @@
         <v>2.5</v>
       </c>
       <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45260</v>
       </c>
+      <c r="B8">
+        <v>3.5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45260</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45261</v>
       </c>
     </row>
   </sheetData>

--- a/Daan logboek.xlsx
+++ b/Daan logboek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7a575cd3af734844/Bureaublad/wk 12/Challenge_Week-3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{E5B1702C-8CBE-4EDB-9542-D877C8874A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45DF977E-9477-4697-B68F-95D343385433}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{E5B1702C-8CBE-4EDB-9542-D877C8874A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E686F878-0532-4BDE-B0E3-16CB5AA5FB84}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>datum</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>de auto veranderd nu altijd of het scherm is zwart</t>
+  </si>
+  <si>
+    <t>sound for tire squeaking</t>
   </si>
 </sst>
 </file>
@@ -457,7 +460,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,6 +611,12 @@
       <c r="A10" s="1">
         <v>45261</v>
       </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
